--- a/Plantilla_Guia_ENV-OBIS_vSM2021.1.xlsx
+++ b/Plantilla_Guia_ENV-OBIS_vSM2021.1.xlsx
@@ -1743,9 +1743,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>652320</xdr:colOff>
+      <xdr:colOff>651960</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1758,8 +1758,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1945440" y="2133360"/>
-          <a:ext cx="4836960" cy="3389400"/>
+          <a:off x="1946520" y="2133360"/>
+          <a:ext cx="4843080" cy="3389040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1780,9 +1780,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>49680</xdr:colOff>
+      <xdr:colOff>49320</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1795,8 +1795,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1526400" y="352080"/>
-          <a:ext cx="2610000" cy="951120"/>
+          <a:off x="1527480" y="352080"/>
+          <a:ext cx="2613600" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1817,9 +1817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>259200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1832,8 +1832,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5117760" y="352080"/>
-          <a:ext cx="3314880" cy="951120"/>
+          <a:off x="5124240" y="352080"/>
+          <a:ext cx="3318480" cy="950760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2080,14 +2080,6 @@
   </sheetData>
   <sheetProtection sheet="true" objects="true" scenarios="true" selectLockedCells="true"/>
   <dataValidations count="9">
-    <dataValidation allowBlank="true" error="Ingrese una coordenada válida" errorTitle="Latitud" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C1001" type="whole">
-      <formula1>-90</formula1>
-      <formula2>90</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Ingrese una coordenada válida&#10;" errorTitle="Longitud" operator="between" prompt="En grados decimales. Negativos en el hemisferio occidental" promptTitle="Longitud" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D1001" type="whole">
-      <formula1>-180</formula1>
-      <formula2>180</formula2>
-    </dataValidation>
     <dataValidation allowBlank="false" error="Ingrese un texto menor de 80 caracteres de largo" errorTitle="dasetName" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F1001" type="textLength">
       <formula1>80</formula1>
       <formula2>0</formula2>
@@ -2115,6 +2107,14 @@
     <dataValidation allowBlank="false" error="Fecha inválida&#10;" errorTitle="Fechas del Evento" operator="between" prompt="en formato YYYY-MM-DD&#10;" promptTitle="Fecha del evento" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2:B1001" type="date">
       <formula1>2</formula1>
       <formula2>TODAY()</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Ingrese una coordenada válida" errorTitle="Latitud" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C1001" type="decimal">
+      <formula1>-90</formula1>
+      <formula2>90</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Ingrese una coordenada válida&#10;" errorTitle="Longitud" operator="between" prompt="En grados decimales. Negativos en el hemisferio occidental" promptTitle="Longitud" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D1001" type="decimal">
+      <formula1>-180</formula1>
+      <formula2>180</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8383,7 +8383,7 @@
       <selection pane="bottomLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.57"/>
@@ -13041,7 +13041,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="59"/>
@@ -13246,7 +13246,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.57"/>
@@ -15065,7 +15065,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.69"/>

--- a/Plantilla_Guia_ENV-OBIS_vSM2021.1.xlsx
+++ b/Plantilla_Guia_ENV-OBIS_vSM2021.1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="213">
   <si>
     <t xml:space="preserve">Planilla para el registro de datos en OBIS</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t xml:space="preserve">coordinateUncertaintyInMeters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">geodeticDatum</t>
   </si>
   <si>
     <t xml:space="preserve">footprintWKT</t>
@@ -1743,9 +1746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>651960</xdr:colOff>
+      <xdr:colOff>651600</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1758,8 +1761,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1946520" y="2133360"/>
-          <a:ext cx="4843080" cy="3389040"/>
+          <a:off x="1947960" y="2133360"/>
+          <a:ext cx="4848840" cy="3388680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1780,9 +1783,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>49320</xdr:colOff>
+      <xdr:colOff>48960</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1795,8 +1798,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1527480" y="352080"/>
-          <a:ext cx="2613600" cy="950760"/>
+          <a:off x="1528920" y="352080"/>
+          <a:ext cx="2616840" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1817,9 +1820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>258840</xdr:colOff>
+      <xdr:colOff>258480</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1832,8 +1835,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5124240" y="352080"/>
-          <a:ext cx="3318480" cy="950760"/>
+          <a:off x="5130360" y="352080"/>
+          <a:ext cx="3322080" cy="950400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1856,7 +1859,7 @@
   <dimension ref="B1:B24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1983,7 +1986,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -2000,16 +2003,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="27.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="26.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="34.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="23.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="5" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="5" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="31.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="5" width="17.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="7" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="5" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="5" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="5" width="22.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="5" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="5" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="5" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="5" width="31.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="5" width="17.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="20" style="7" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2040,16 +2044,16 @@
       <c r="I1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>29</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="12" t="s">
         <v>31</v>
       </c>
       <c r="N1" s="11" t="s">
@@ -2067,8 +2071,10 @@
       <c r="R1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="13"/>
-      <c r="T1" s="14"/>
+      <c r="S1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="13"/>
       <c r="U1" s="14"/>
       <c r="V1" s="14"/>
       <c r="W1" s="14"/>
@@ -2076,10 +2082,11 @@
       <c r="Y1" s="14"/>
       <c r="Z1" s="14"/>
       <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" objects="true" scenarios="true" selectLockedCells="true"/>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation allowBlank="false" error="Ingrese un texto menor de 80 caracteres de largo" errorTitle="dasetName" operator="lessThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F1001" type="textLength">
       <formula1>80</formula1>
       <formula2>0</formula2>
@@ -2092,15 +2099,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Ingrese un valor mayor que cero&#10;" errorTitle="Error GPS" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I2:I1001" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Selecciones una opción de la lista&#10;" errorTitle="Type" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K2:K1001" type="list">
+    <dataValidation allowBlank="true" error="Selecciones una opción de la lista&#10;" errorTitle="Type" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L1001" type="list">
       <formula1>"Cruise,Site,Locality,Station,Stratum,Quadrat,Sample,Sub-Sample,,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L1001" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2:M1001" type="list">
       <formula1>'Event (Evento)'!$A$2:$A$10000</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2115,6 +2118,14 @@
     <dataValidation allowBlank="true" error="Ingrese una coordenada válida&#10;" errorTitle="Longitud" operator="between" prompt="En grados decimales. Negativos en el hemisferio occidental" promptTitle="Longitud" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D1001" type="decimal">
       <formula1>-180</formula1>
       <formula2>180</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Ingrese un valor mayor que cero&#10;" errorTitle="Error GPS" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I2:I1001" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Las coordenadas sólo pueden estar en EPSG:4326&#10;" errorTitle="Error GPS" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J2:J1001" type="list">
+      <formula1>"EPSG:4326"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2135,7 +2146,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="22.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2174,79 +2185,79 @@
         <v>19</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5305,28 +5316,28 @@
         <v>19</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J1" s="22"/>
       <c r="K1" s="22"/>
@@ -8383,7 +8394,7 @@
       <selection pane="bottomLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.57"/>
@@ -8394,32 +8405,32 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
     </row>
     <row r="2" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="31"/>
@@ -8427,13 +8438,13 @@
     <row r="3" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="26"/>
       <c r="B3" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="36"/>
@@ -8441,13 +8452,13 @@
     <row r="4" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26"/>
       <c r="B4" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="37"/>
@@ -8455,13 +8466,13 @@
     <row r="5" customFormat="false" ht="34.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="26"/>
       <c r="B5" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" s="38"/>
       <c r="F5" s="37"/>
@@ -8469,13 +8480,13 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26"/>
       <c r="B6" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="37"/>
@@ -8483,13 +8494,13 @@
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="26"/>
       <c r="B7" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="40"/>
@@ -8497,13 +8508,13 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="26"/>
       <c r="B8" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="37"/>
@@ -8511,13 +8522,13 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="26"/>
       <c r="B9" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="37"/>
@@ -8525,13 +8536,13 @@
     <row r="10" customFormat="false" ht="34.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="26"/>
       <c r="B10" s="32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="37"/>
@@ -8539,13 +8550,13 @@
     <row r="11" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="26"/>
       <c r="B11" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="37"/>
@@ -8553,29 +8564,29 @@
     <row r="12" customFormat="false" ht="57.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="26"/>
       <c r="B12" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F12" s="40"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26"/>
       <c r="B13" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="40"/>
@@ -8583,13 +8594,13 @@
     <row r="14" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26"/>
       <c r="B14" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="37"/>
@@ -8597,13 +8608,13 @@
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26"/>
       <c r="B15" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="37"/>
@@ -8611,13 +8622,13 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26"/>
       <c r="B16" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="37"/>
@@ -8625,13 +8636,13 @@
     <row r="17" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26"/>
       <c r="B17" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="36"/>
@@ -8639,13 +8650,13 @@
     <row r="18" customFormat="false" ht="34.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26"/>
       <c r="B18" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="37"/>
@@ -8653,29 +8664,29 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26"/>
       <c r="B19" s="46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E19" s="49"/>
       <c r="F19" s="50"/>
     </row>
     <row r="20" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="31"/>
@@ -8683,13 +8694,13 @@
     <row r="21" customFormat="false" ht="34.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26"/>
       <c r="B21" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="36"/>
@@ -8697,13 +8708,13 @@
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26"/>
       <c r="B22" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="36"/>
@@ -8711,13 +8722,13 @@
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26"/>
       <c r="B23" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E23" s="35"/>
       <c r="F23" s="36"/>
@@ -8725,13 +8736,13 @@
     <row r="24" customFormat="false" ht="34.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26"/>
       <c r="B24" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24" s="35"/>
       <c r="F24" s="37"/>
@@ -8739,13 +8750,13 @@
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="26"/>
       <c r="B25" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="36"/>
@@ -8753,13 +8764,13 @@
     <row r="26" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="26"/>
       <c r="B26" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="37"/>
@@ -8767,13 +8778,13 @@
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26"/>
       <c r="B27" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="37"/>
@@ -8781,13 +8792,13 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="26"/>
       <c r="B28" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="37"/>
@@ -8795,13 +8806,13 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="26"/>
       <c r="B29" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E29" s="38"/>
       <c r="F29" s="37"/>
@@ -8809,13 +8820,13 @@
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="26"/>
       <c r="B30" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="37"/>
@@ -8823,13 +8834,13 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="26"/>
       <c r="B31" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E31" s="38"/>
       <c r="F31" s="37"/>
@@ -8837,13 +8848,13 @@
     <row r="32" customFormat="false" ht="34.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="26"/>
       <c r="B32" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E32" s="38"/>
       <c r="F32" s="36"/>
@@ -8851,13 +8862,13 @@
     <row r="33" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26"/>
       <c r="B33" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E33" s="38"/>
       <c r="F33" s="37"/>
@@ -8865,13 +8876,13 @@
     <row r="34" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="26"/>
       <c r="B34" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E34" s="38"/>
       <c r="F34" s="37"/>
@@ -8879,13 +8890,13 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26"/>
       <c r="B35" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E35" s="38"/>
       <c r="F35" s="36"/>
@@ -8893,13 +8904,13 @@
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26"/>
       <c r="B36" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E36" s="38"/>
       <c r="F36" s="37"/>
@@ -8907,13 +8918,13 @@
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26"/>
       <c r="B37" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E37" s="38"/>
       <c r="F37" s="37"/>
@@ -8921,13 +8932,13 @@
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26"/>
       <c r="B38" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="37"/>
@@ -8935,13 +8946,13 @@
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26"/>
       <c r="B39" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E39" s="38"/>
       <c r="F39" s="37"/>
@@ -8949,13 +8960,13 @@
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26"/>
       <c r="B40" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E40" s="38"/>
       <c r="F40" s="37"/>
@@ -8963,13 +8974,13 @@
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26"/>
       <c r="B41" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="37"/>
@@ -8977,13 +8988,13 @@
     <row r="42" customFormat="false" ht="23.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26"/>
       <c r="B42" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="37"/>
@@ -8991,13 +9002,13 @@
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="26"/>
       <c r="B43" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="37"/>
@@ -9005,13 +9016,13 @@
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="26"/>
       <c r="B44" s="32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44" s="37"/>
@@ -9019,29 +9030,29 @@
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26"/>
       <c r="B45" s="46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="50"/>
     </row>
     <row r="46" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E46" s="51"/>
       <c r="F46" s="31"/>
@@ -9049,13 +9060,13 @@
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="26"/>
       <c r="B47" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E47" s="35"/>
       <c r="F47" s="37"/>
@@ -9063,13 +9074,13 @@
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="26"/>
       <c r="B48" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E48" s="35"/>
       <c r="F48" s="36"/>
@@ -9077,13 +9088,13 @@
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="26"/>
       <c r="B49" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E49" s="35"/>
       <c r="F49" s="37"/>
@@ -9091,13 +9102,13 @@
     <row r="50" customFormat="false" ht="34.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="26"/>
       <c r="B50" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E50" s="39"/>
       <c r="F50" s="40"/>
@@ -9105,13 +9116,13 @@
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="26"/>
       <c r="B51" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E51" s="39"/>
       <c r="F51" s="40"/>
@@ -9119,13 +9130,13 @@
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="26"/>
       <c r="B52" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E52" s="42"/>
       <c r="F52" s="37"/>
@@ -9133,13 +9144,13 @@
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="26"/>
       <c r="B53" s="32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E53" s="35"/>
       <c r="F53" s="36"/>
@@ -9147,13 +9158,13 @@
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="26"/>
       <c r="B54" s="53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C54" s="54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54" s="55" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E54" s="56"/>
       <c r="F54" s="57"/>
@@ -13041,7 +13052,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="59"/>
@@ -13098,7 +13109,7 @@
       <c r="A10" s="59"/>
       <c r="B10" s="63"/>
       <c r="E10" s="65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I10" s="64"/>
     </row>
@@ -13195,10 +13206,10 @@
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="66"/>
       <c r="G30" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H30" s="67" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I30" s="64"/>
     </row>
@@ -13209,10 +13220,10 @@
       <c r="E31" s="69"/>
       <c r="F31" s="69"/>
       <c r="G31" s="70" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H31" s="71" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I31" s="72"/>
     </row>
@@ -13246,7 +13257,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.57"/>
@@ -13257,820 +13268,820 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="75" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C2" s="81" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="26"/>
       <c r="B3" s="83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="81" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="84" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26"/>
       <c r="B4" s="83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C4" s="81" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="26"/>
       <c r="B5" s="83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" s="81" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" s="84" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="26"/>
       <c r="B6" s="83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="81" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="26"/>
       <c r="B7" s="83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" s="81" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7" s="85" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="26"/>
       <c r="B8" s="83" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" s="86" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" s="84" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="26"/>
       <c r="B9" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" s="86" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9" s="84" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="26"/>
       <c r="B10" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C10" s="86" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="87" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="26"/>
       <c r="B11" s="83" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="26"/>
       <c r="B12" s="83" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C12" s="89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E12" s="85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26"/>
       <c r="B13" s="83" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="89" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13" s="85" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26"/>
       <c r="B14" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" s="84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26"/>
       <c r="B15" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E15" s="84" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26"/>
       <c r="B16" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26"/>
       <c r="B17" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E17" s="84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26"/>
       <c r="B18" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E18" s="84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26"/>
       <c r="B19" s="90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E19" s="84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C20" s="81" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E20" s="84" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26"/>
       <c r="B21" s="83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C21" s="81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E21" s="84" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="26"/>
       <c r="B22" s="83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="26"/>
       <c r="B23" s="83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E23" s="84" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="26"/>
       <c r="B24" s="83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C24" s="81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="26"/>
       <c r="B25" s="83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C25" s="81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E25" s="84" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="26"/>
       <c r="B26" s="83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C26" s="89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E26" s="84" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26"/>
       <c r="B27" s="83" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C27" s="88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E27" s="84" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="26"/>
       <c r="B28" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E28" s="84" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="26"/>
       <c r="B29" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C29" s="88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E29" s="84" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="26"/>
       <c r="B30" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C30" s="88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E30" s="84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="26"/>
       <c r="B31" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C31" s="88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E31" s="84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="26"/>
       <c r="B32" s="32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C32" s="88" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E32" s="84" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="26"/>
       <c r="B33" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C33" s="88" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E33" s="84" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="26"/>
       <c r="B34" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C34" s="88" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E34" s="84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="26"/>
       <c r="B35" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C35" s="88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E35" s="84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="26"/>
       <c r="B36" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C36" s="88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="26"/>
       <c r="B37" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C37" s="88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E37" s="84" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="26"/>
       <c r="B38" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C38" s="88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E38" s="84" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="26"/>
       <c r="B39" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C39" s="88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E39" s="84" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="26"/>
       <c r="B40" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E40" s="84" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="26"/>
       <c r="B41" s="32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C41" s="88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E41" s="84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="26"/>
       <c r="B42" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C42" s="88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E42" s="84" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="26"/>
       <c r="B43" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C43" s="88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E43" s="84" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="26"/>
       <c r="B44" s="83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C44" s="88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="26"/>
       <c r="B45" s="92" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C45" s="88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E45" s="84" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="26" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B46" s="93" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C46" s="81" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E46" s="84" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="26"/>
       <c r="B47" s="83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C47" s="81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E47" s="84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="26"/>
       <c r="B48" s="83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C48" s="81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="26"/>
       <c r="B49" s="83" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C49" s="81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E49" s="85" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="26"/>
       <c r="B50" s="83" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C50" s="86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="26"/>
       <c r="B51" s="83" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C51" s="86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E51" s="87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="26"/>
       <c r="B52" s="83" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C52" s="86" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E52" s="84" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="26"/>
       <c r="B53" s="83" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C53" s="86" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E53" s="84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="26"/>
       <c r="B54" s="90" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C54" s="94" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E54" s="84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15065,7 +15076,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.69"/>
@@ -15073,39 +15084,39 @@
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="96" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B4" s="97" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B5" s="97" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="99" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B6" s="97" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="100" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B7" s="97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/Plantilla_Guia_ENV-OBIS_vSM2021.1.xlsx
+++ b/Plantilla_Guia_ENV-OBIS_vSM2021.1.xlsx
@@ -751,7 +751,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -840,13 +840,6 @@
       <i val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFCCCCCC"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -1319,20 +1312,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1343,15 +1340,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1359,7 +1352,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1367,11 +1360,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1379,19 +1372,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1399,36 +1392,40 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1436,18 +1433,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1455,27 +1448,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1483,15 +1476,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1499,7 +1488,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1511,7 +1504,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1519,7 +1512,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1527,7 +1520,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1543,7 +1536,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1555,95 +1548,95 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1651,15 +1644,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1746,9 +1739,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>651600</xdr:colOff>
+      <xdr:colOff>651240</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1761,8 +1754,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1947960" y="2133360"/>
-          <a:ext cx="4848840" cy="3388680"/>
+          <a:off x="1949040" y="2133360"/>
+          <a:ext cx="4855320" cy="3388320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1783,9 +1776,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>48960</xdr:colOff>
+      <xdr:colOff>48600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1798,8 +1791,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1528920" y="352080"/>
-          <a:ext cx="2616840" cy="950400"/>
+          <a:off x="1530000" y="352080"/>
+          <a:ext cx="2620440" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1820,9 +1813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>258480</xdr:colOff>
+      <xdr:colOff>258120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1835,8 +1828,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5130360" y="352080"/>
-          <a:ext cx="3322080" cy="950400"/>
+          <a:off x="5136840" y="352080"/>
+          <a:ext cx="3325320" cy="950040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2153,10 +2146,10 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="40.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="33.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="22.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="41.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="58.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="23.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="29.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="24.63"/>
@@ -5263,16 +5256,16 @@
   </sheetData>
   <sheetProtection sheet="true" objects="true" scenarios="true" selectLockedCells="true"/>
   <dataValidations count="3">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1001" type="list">
+      <formula1>'Event (Evento)'!$A$2:$A$10000</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C1001" type="list">
       <formula1>"PreservedSpecimen,FossilSpecimen,LivingSpecimen,HumanObservation,MachineObservation"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D1001" type="list">
       <formula1>"Present,Absent"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A1001" type="list">
-      <formula1>'Event (Evento)'!$A$2:$A$10000</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -8394,7 +8387,7 @@
       <selection pane="bottomLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.57"/>
@@ -13052,7 +13045,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="59"/>
@@ -13257,7 +13250,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.57"/>
@@ -15076,7 +15069,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.69"/>
